--- a/loaded_influencer_data/romma.reb/romma.reb_video.xlsx
+++ b/loaded_influencer_data/romma.reb/romma.reb_video.xlsx
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7485138683239157014</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -526,22 +526,18 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.456570155902004</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.122494432071269</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.334075723830735</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -549,148 +545,165 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7474264245761346838</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>#fyp @coleyes_official 💚</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.783808647654094</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.231830726770929</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.5519779208831647</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.3679852805887764</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7464157957614325014</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1293</v>
+        <v>1300</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>#fyp @coleyes_official 💚</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7463218042168773910</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>regalo de Maybelline New York
+La mítica Sky hight llevó muchísimo tiempo utilizándola y me encanta pero este nuevo color? 🫢</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>8.789885611077663</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>7.947019867549669</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.8428657435279951</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.3010234798314269</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7461910085229399329</t>
         </is>
@@ -699,48 +712,49 @@
         <v>1238</v>
       </c>
       <c r="C6" t="n">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>🥲😵‍💫😂 #fyp #parati #forupage</t>
+          <t>Un regalo de The Ordinary🫣
+Aún que no es la primera vez que los utilizo, llevo como 4 botes del serum de niacinamida + zinc, mi favorito 🤫🩷</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11.79321486268174</v>
+        <v>16.39741518578352</v>
       </c>
       <c r="I6" t="n">
-        <v>11.47011308562197</v>
+        <v>15.34733441033926</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3231017770597738</v>
+        <v>1.050080775444265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8885298869143781</v>
+        <v>1.130856219709208</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2025-01-24</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7459750877532818721</t>
         </is>
@@ -749,48 +763,49 @@
         <v>1044</v>
       </c>
       <c r="C7" t="n">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>그것은 센스에서 왔고 나는 그것을 샀다 🤩🤩@Primaprix #fyp #ugc #ugccreator #ugcspain #parati #beauty #lipcombo</t>
+          <t>Un regalo de The Ordinary🫣
+Aún que no es la primera vez que los utilizo, llevo como 4 botes del serum de niacinamida + zinc, mi favorito 🤫🩷</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>11.01532567049808</v>
+        <v>16.76245210727969</v>
       </c>
       <c r="I7" t="n">
-        <v>10.05747126436782</v>
+        <v>14.6551724137931</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9578544061302682</v>
+        <v>2.10727969348659</v>
       </c>
       <c r="L7" t="n">
-        <v>1.053639846743295</v>
+        <v>0.6704980842911877</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2025-01-20</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7459461789848292641</t>
         </is>
@@ -799,98 +814,100 @@
         <v>934</v>
       </c>
       <c r="C8" t="n">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>당신은 원🥹🌷 . . . #ugc #ugccreator #ugccommunity #ugcexample #ugcspain #ugccontent #parati</t>
+          <t>regalo de Maybelline New York
+Me encantó el acabado 🫣🩷
+@maybelline_es #maybelline #loborratodo #fyp</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13.16916488222698</v>
+        <v>15.63169164882227</v>
       </c>
       <c r="I8" t="n">
-        <v>10.59957173447537</v>
+        <v>13.81156316916488</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.569593147751606</v>
+        <v>1.820128479657388</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39186295503212</v>
+        <v>0.9635974304068522</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2025-01-14</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7459445197278088480</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C9" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>나만 그런 게 아니길 바래🥹😂#ugc #ugccreator #ugccontentcreator #ugccommunity #ugcexample</t>
+          <t>No miento si digo que son mis gafas favoritas @Firmoo_es @Firmoo Glasses 🫣🤫 #firmoo #firmooesxjy #fyp</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10.24819855884708</v>
+        <v>12.69968051118211</v>
       </c>
       <c r="I9" t="n">
-        <v>10.16813450760608</v>
+        <v>10.86261980830671</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08006405124099279</v>
+        <v>1.837060702875399</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6405124099279423</v>
+        <v>0.5591054313099041</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-01-14</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7453115332694248736</t>
         </is>
@@ -899,48 +916,48 @@
         <v>791</v>
       </c>
       <c r="C10" t="n">
-        <v>398</v>
+        <v>131</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>프로세스를 신뢰 💗🔜#ugc #ugccreator #ugccontentcreator #ugccommunity #ugcexample #ugcspain #ugccontent</t>
+          <t>Blush+ contour + highlighter 🤯@bayfreebeauty amé 🩷 link de los productos en mi descripción 🩷 #fyp #yxzcba</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>51.70670037926675</v>
+        <v>17.69911504424779</v>
       </c>
       <c r="I10" t="n">
-        <v>50.31605562579013</v>
+        <v>16.56131479140329</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.390644753476612</v>
+        <v>1.137800252844501</v>
       </c>
       <c r="L10" t="n">
-        <v>6.826801517067003</v>
+        <v>1.643489254108723</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-01-14</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7452056465487007009</t>
         </is>
@@ -990,7 +1007,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7451620309284752673</t>
         </is>
@@ -1040,7 +1057,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7450467522693958945</t>
         </is>
@@ -1090,7 +1107,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7449761104785329441</t>
         </is>
@@ -1140,7 +1157,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7449732417998408993</t>
         </is>
@@ -1190,7 +1207,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7449383167515053345</t>
         </is>
@@ -1240,7 +1257,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7448986343004228896</t>
         </is>
@@ -1290,7 +1307,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7448290410180414753</t>
         </is>
@@ -1340,7 +1357,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7447916941076860192</t>
         </is>
@@ -1390,7 +1407,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7447095309940903200</t>
         </is>
@@ -1440,7 +1457,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7445227013599694113</t>
         </is>
@@ -1490,7 +1507,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7444602944059739425</t>
         </is>
@@ -1540,7 +1557,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7444276294574951713</t>
         </is>
@@ -1590,7 +1607,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7443835788971855136</t>
         </is>
@@ -1640,7 +1657,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/photo/7443500084886605088</t>
         </is>
@@ -1690,7 +1707,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7441705902194904353</t>
         </is>
@@ -1740,7 +1757,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7439364780579704096</t>
         </is>
@@ -1790,7 +1807,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7439056510153428257</t>
         </is>
@@ -1840,7 +1857,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7439003155574148385</t>
         </is>
@@ -1890,7 +1907,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7438677785633246497</t>
         </is>
@@ -1940,7 +1957,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7438261423655898400</t>
         </is>
@@ -1990,7 +2007,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7437983338012413216</t>
         </is>
@@ -2040,7 +2057,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7437850705215393057</t>
         </is>
@@ -2090,7 +2107,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7437618613445561632</t>
         </is>
@@ -2140,7 +2157,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7437530591907630369</t>
         </is>
@@ -2190,7 +2207,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/photo/7431713019060636961</t>
         </is>
@@ -2240,7 +2257,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7431507292903771424</t>
         </is>
@@ -2290,7 +2307,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/photo/7430928461536955681</t>
         </is>
@@ -2340,7 +2357,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7430855680807947553</t>
         </is>
@@ -2390,7 +2407,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7430584224853282080</t>
         </is>
@@ -2440,7 +2457,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7430175608568614177</t>
         </is>
@@ -2490,7 +2507,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7430071555985509664</t>
         </is>
@@ -2540,7 +2557,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7429837107440536865</t>
         </is>
@@ -2590,7 +2607,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7429617176572710176</t>
         </is>
@@ -2640,7 +2657,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7429465469662399777</t>
         </is>
@@ -2690,7 +2707,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7429402375548374305</t>
         </is>
@@ -2740,7 +2757,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@romma.reb/video/7429103685730405664</t>
         </is>
